--- a/infinite-fantasia/checklist.xlsx
+++ b/infinite-fantasia/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/infinite-fantasia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/infinite-fantasia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9D6C3E-707B-1641-8F7B-E9C0723F7565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95F2B2-E35B-924B-A602-F3689907B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{7335B574-C4EF-D442-9721-83880F677327}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{7335B574-C4EF-D442-9721-83880F677327}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>year</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>replay</t>
+  </si>
+  <si>
+    <t>Secret of the Ruins: 無限のファンタジアサプリメント１</t>
+  </si>
+  <si>
+    <t>Secret of the Ruins: Infinite Fantasia Supplement 1</t>
+  </si>
+  <si>
+    <t>secret_of_the_ruins.jpg</t>
+  </si>
+  <si>
+    <t>supplement</t>
   </si>
 </sst>
 </file>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E9F523-F4BF-3E4C-A982-A6F224C16117}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,21 +527,41 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
     </row>
